--- a/apps/load_data/2022/06/PLMOVMAE.xlsx
+++ b/apps/load_data/2022/06/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2022\HHY0622\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022-\HHY0622\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F997EA-BFD7-461D-90B6-089BF1F35972}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5FA5D-C43C-4CCB-9A6B-C520464A2E68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$274</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$274</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11850" uniqueCount="3238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11830" uniqueCount="3235">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6793,9 +6794,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -7963,9 +7961,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8261,9 +8256,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9742,7 +9734,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10582,10 +10574,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD232" sqref="AC171:AD232"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42737,12 +42731,7 @@
       <c r="AB171" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>108</v>
       </c>
@@ -42795,16 +42784,16 @@
         <v>22</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>118</v>
@@ -42819,13 +42808,13 @@
         <v>160</v>
       </c>
       <c r="BS171" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BT171" s="3">
         <v>36225</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>122</v>
@@ -42846,19 +42835,19 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2264</v>
       </c>
-      <c r="CH171" s="1" t="s">
+      <c r="CI171" s="1" t="s">
         <v>2265</v>
-      </c>
-      <c r="CI171" s="1" t="s">
-        <v>2266</v>
       </c>
       <c r="CJ171" s="1" t="s">
         <v>130</v>
@@ -42896,13 +42885,13 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2269</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -42937,12 +42926,7 @@
       <c r="AB172" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>108</v>
       </c>
@@ -42989,7 +42973,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BB172" s="1">
         <v>6</v>
@@ -42998,13 +42982,13 @@
         <v>22</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>1632</v>
@@ -43019,13 +43003,13 @@
         <v>103</v>
       </c>
       <c r="BS172" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BT172" s="3">
         <v>36949</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>122</v>
@@ -43049,16 +43033,16 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>1961</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2276</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2277</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>1638</v>
@@ -43099,10 +43083,10 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -43128,12 +43112,7 @@
       <c r="AB173" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>108</v>
       </c>
@@ -43180,7 +43159,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BB173" s="1">
         <v>5</v>
@@ -43189,7 +43168,7 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>118</v>
@@ -43225,10 +43204,10 @@
         <v>102</v>
       </c>
       <c r="CD173" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="CH173" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43269,13 +43248,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2284</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2285</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -43307,12 +43286,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>108</v>
       </c>
@@ -43362,7 +43336,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="BB174" s="1">
         <v>6</v>
@@ -43371,13 +43345,13 @@
         <v>22</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BN174" s="1" t="s">
         <v>118</v>
@@ -43386,7 +43360,7 @@
         <v>107</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>122</v>
@@ -43404,16 +43378,16 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="CE174" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="CF174" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="CH174" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>130</v>
@@ -43454,13 +43428,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43495,12 +43469,7 @@
       <c r="AB175" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>108</v>
       </c>
@@ -43550,7 +43519,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BB175" s="1">
         <v>6</v>
@@ -43559,13 +43528,13 @@
         <v>22</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BN175" s="1" t="s">
         <v>118</v>
@@ -43574,7 +43543,7 @@
         <v>107</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>122</v>
@@ -43595,13 +43564,13 @@
         <v>657</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="CF175" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2302</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>130</v>
@@ -43642,13 +43611,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2303</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2304</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2305</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43680,12 +43649,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>108</v>
       </c>
@@ -43735,7 +43699,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BB176" s="1">
         <v>6</v>
@@ -43744,16 +43708,16 @@
         <v>22</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="BI176" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="BI176" s="1" t="s">
-        <v>2309</v>
       </c>
       <c r="BN176" s="1" t="s">
         <v>118</v>
@@ -43762,7 +43726,7 @@
         <v>107</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>122</v>
@@ -43780,19 +43744,19 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="CF176" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="CE176" s="1" t="s">
-        <v>2311</v>
-      </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="CH176" s="1" t="s">
+      <c r="CI176" s="1" t="s">
         <v>2313</v>
-      </c>
-      <c r="CI176" s="1" t="s">
-        <v>2314</v>
       </c>
       <c r="CJ176" s="1" t="s">
         <v>130</v>
@@ -43830,13 +43794,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2315</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2316</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2317</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -43874,12 +43838,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>108</v>
       </c>
@@ -43926,7 +43885,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BB177" s="1">
         <v>6</v>
@@ -43935,13 +43894,13 @@
         <v>22</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>400</v>
@@ -43956,13 +43915,13 @@
         <v>119</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BT177" s="3">
         <v>35243</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>122</v>
@@ -43980,16 +43939,16 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2326</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>407</v>
@@ -44030,13 +43989,13 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -44068,12 +44027,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>108</v>
       </c>
@@ -44123,7 +44077,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BB178" s="1">
         <v>6</v>
@@ -44132,13 +44086,13 @@
         <v>22</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>569</v>
@@ -44150,7 +44104,7 @@
         <v>107</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>122</v>
@@ -44168,16 +44122,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2336</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2337</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>575</v>
@@ -44218,13 +44172,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2338</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2339</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2340</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -44256,12 +44210,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>108</v>
       </c>
@@ -44311,7 +44260,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BB179" s="1">
         <v>6</v>
@@ -44320,13 +44269,13 @@
         <v>22</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>569</v>
@@ -44341,7 +44290,7 @@
         <v>160</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>122</v>
@@ -44359,16 +44308,16 @@
         <v>102</v>
       </c>
       <c r="CD179" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="CE179" s="1" t="s">
         <v>2345</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CF179" s="1" t="s">
         <v>2346</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2347</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2348</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>575</v>
@@ -44403,19 +44352,19 @@
         <v>95</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44450,12 +44399,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>108</v>
       </c>
@@ -44505,7 +44449,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BB180" s="1">
         <v>6</v>
@@ -44514,13 +44458,13 @@
         <v>22</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>118</v>
@@ -44529,7 +44473,7 @@
         <v>107</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>122</v>
@@ -44541,7 +44485,7 @@
         <v>112</v>
       </c>
       <c r="CA180" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="CB180" s="1" t="s">
         <v>124</v>
@@ -44550,16 +44494,16 @@
         <v>102</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CF180" s="1" t="s">
         <v>2359</v>
       </c>
-      <c r="CF180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2360</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2361</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>130</v>
@@ -44600,13 +44544,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2364</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44638,12 +44582,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>108</v>
       </c>
@@ -44690,7 +44629,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BB181" s="1">
         <v>6</v>
@@ -44699,16 +44638,16 @@
         <v>22</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2367</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2368</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>118</v>
@@ -44720,13 +44659,13 @@
         <v>119</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BT181" s="3">
         <v>35950</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>122</v>
@@ -44744,19 +44683,19 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="CE181" s="1" t="s">
         <v>1775</v>
       </c>
       <c r="CF181" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="CH181" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>130</v>
@@ -44794,13 +44733,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -44884,7 +44823,7 @@
         <v>102</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BB182" s="1">
         <v>6</v>
@@ -44893,13 +44832,13 @@
         <v>22</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>1884</v>
@@ -44914,7 +44853,7 @@
         <v>160</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>122</v>
@@ -44932,16 +44871,16 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>404</v>
       </c>
       <c r="CF182" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="CH182" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>1890</v>
@@ -44982,13 +44921,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -45066,7 +45005,7 @@
         <v>102</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BB183" s="1">
         <v>6</v>
@@ -45075,16 +45014,16 @@
         <v>22</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="BI183" s="1" t="s">
         <v>2390</v>
-      </c>
-      <c r="BI183" s="1" t="s">
-        <v>2391</v>
       </c>
       <c r="BN183" s="1" t="s">
         <v>118</v>
@@ -45096,13 +45035,13 @@
         <v>216</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BT183" s="3">
         <v>36099</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>122</v>
@@ -45120,19 +45059,19 @@
         <v>102</v>
       </c>
       <c r="CD183" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="CE183" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CF183" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="CF183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="CH183" s="1" t="s">
+      <c r="CI183" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="CI183" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="CJ183" s="1" t="s">
         <v>130</v>
@@ -45170,13 +45109,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -45251,7 +45190,7 @@
         <v>102</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BB184" s="1">
         <v>6</v>
@@ -45260,16 +45199,16 @@
         <v>22</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2404</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2405</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>118</v>
@@ -45281,13 +45220,13 @@
         <v>103</v>
       </c>
       <c r="BS184" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BT184" s="3">
         <v>37735</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>122</v>
@@ -45305,19 +45244,19 @@
         <v>102</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="CH184" s="1" t="s">
+      <c r="CI184" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="CI184" s="1" t="s">
-        <v>2412</v>
       </c>
       <c r="CJ184" s="1" t="s">
         <v>130</v>
@@ -45355,13 +45294,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2414</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2415</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45442,7 +45381,7 @@
         <v>102</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BB185" s="1">
         <v>6</v>
@@ -45451,13 +45390,13 @@
         <v>22</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>118</v>
@@ -45466,7 +45405,7 @@
         <v>107</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>122</v>
@@ -45484,16 +45423,16 @@
         <v>102</v>
       </c>
       <c r="CD185" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="CE185" s="1" t="s">
         <v>854</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2422</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>130</v>
@@ -45534,13 +45473,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45579,7 +45518,7 @@
         <v>108</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="AH186" s="1" t="s">
         <v>1881</v>
@@ -45624,7 +45563,7 @@
         <v>102</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BB186" s="1">
         <v>6</v>
@@ -45633,13 +45572,13 @@
         <v>22</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>118</v>
@@ -45648,7 +45587,7 @@
         <v>107</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>122</v>
@@ -45669,13 +45608,13 @@
         <v>1563</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2433</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>130</v>
@@ -45716,13 +45655,13 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45803,7 +45742,7 @@
         <v>102</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BB187" s="1">
         <v>6</v>
@@ -45812,16 +45751,16 @@
         <v>22</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>118</v>
@@ -45833,13 +45772,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BT187" s="3">
         <v>43602</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>122</v>
@@ -45863,13 +45802,13 @@
         <v>939</v>
       </c>
       <c r="CF187" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CH187" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2445</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>130</v>
@@ -45907,13 +45846,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -45994,7 +45933,7 @@
         <v>102</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BB188" s="1">
         <v>6</v>
@@ -46003,16 +45942,16 @@
         <v>22</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BI188" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BN188" s="1" t="s">
         <v>118</v>
@@ -46021,7 +45960,7 @@
         <v>107</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>122</v>
@@ -46039,19 +45978,19 @@
         <v>102</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CF188" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="CF188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="CH188" s="1" t="s">
-        <v>2456</v>
-      </c>
       <c r="CI188" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="CJ188" s="1" t="s">
         <v>130</v>
@@ -46089,13 +46028,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -46137,7 +46076,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>108</v>
@@ -46191,16 +46130,16 @@
         <v>22</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2462</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2463</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>118</v>
@@ -46212,13 +46151,13 @@
         <v>216</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BT189" s="3">
         <v>36580</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>122</v>
@@ -46239,7 +46178,7 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="CE189" s="1" t="s">
         <v>284</v>
@@ -46248,10 +46187,10 @@
         <v>1592</v>
       </c>
       <c r="CH189" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="CI189" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>130</v>
@@ -46289,13 +46228,13 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46379,13 +46318,13 @@
         <v>22</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>1107</v>
@@ -46400,13 +46339,13 @@
         <v>119</v>
       </c>
       <c r="BS190" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BT190" s="3">
         <v>37747</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>122</v>
@@ -46430,10 +46369,10 @@
         <v>645</v>
       </c>
       <c r="CF190" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>1113</v>
@@ -46474,13 +46413,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46567,13 +46506,13 @@
         <v>22</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>118</v>
@@ -46582,7 +46521,7 @@
         <v>107</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>122</v>
@@ -46600,16 +46539,16 @@
         <v>102</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>130</v>
@@ -46650,13 +46589,13 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2490</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46746,16 +46685,16 @@
         <v>22</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BI192" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BN192" s="1" t="s">
         <v>118</v>
@@ -46767,7 +46706,7 @@
         <v>160</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>122</v>
@@ -46785,19 +46724,19 @@
         <v>102</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CF192" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="CH192" s="1" t="s">
-        <v>2497</v>
-      </c>
       <c r="CI192" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="CJ192" s="1" t="s">
         <v>130</v>
@@ -46835,13 +46774,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2499</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2500</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -46925,16 +46864,16 @@
         <v>22</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="BN193" s="1" t="s">
         <v>118</v>
@@ -46946,13 +46885,13 @@
         <v>103</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BT193" s="3">
         <v>37334</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>122</v>
@@ -46973,16 +46912,16 @@
         <v>495</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="CF193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="CH193" s="1" t="s">
+      <c r="CI193" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="CI193" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="CJ193" s="1" t="s">
         <v>130</v>
@@ -47020,13 +46959,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -47113,16 +47052,16 @@
         <v>22</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>118</v>
@@ -47134,13 +47073,13 @@
         <v>103</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BT194" s="3">
         <v>37904</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>122</v>
@@ -47161,16 +47100,16 @@
         <v>939</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="CF194" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>130</v>
@@ -47208,13 +47147,13 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2523</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2524</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47301,13 +47240,13 @@
         <v>22</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BN195" s="1" t="s">
         <v>118</v>
@@ -47319,13 +47258,13 @@
         <v>119</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BT195" s="3">
         <v>36111</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>122</v>
@@ -47343,16 +47282,16 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="CE195" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="CF195" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -47393,13 +47332,13 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47483,16 +47422,16 @@
         <v>22</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2537</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>118</v>
@@ -47504,13 +47443,13 @@
         <v>119</v>
       </c>
       <c r="BS196" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BT196" s="3">
         <v>37785</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>122</v>
@@ -47528,19 +47467,19 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="CH196" s="1" t="s">
+      <c r="CI196" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="CI196" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="CJ196" s="1" t="s">
         <v>130</v>
@@ -47572,16 +47511,16 @@
         <v>95</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2546</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47659,7 +47598,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>118</v>
@@ -47674,7 +47613,7 @@
         <v>0</v>
       </c>
       <c r="CA197" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="CB197" s="1" t="s">
         <v>124</v>
@@ -47683,7 +47622,7 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>130</v>
@@ -47727,13 +47666,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47814,7 +47753,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BB198" s="1">
         <v>6</v>
@@ -47823,7 +47762,7 @@
         <v>22</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>115</v>
@@ -47838,7 +47777,7 @@
         <v>107</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>122</v>
@@ -47856,13 +47795,13 @@
         <v>102</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="CF198" s="1" t="s">
-        <v>2556</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>1016</v>
@@ -47906,13 +47845,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -47993,7 +47932,7 @@
         <v>102</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BB199" s="1">
         <v>6</v>
@@ -48002,16 +47941,16 @@
         <v>22</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="BI199" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="BI199" s="1" t="s">
-        <v>2563</v>
       </c>
       <c r="BN199" s="1" t="s">
         <v>118</v>
@@ -48020,7 +47959,7 @@
         <v>107</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>122</v>
@@ -48038,19 +47977,19 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="CH199" s="1" t="s">
+      <c r="CI199" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="CI199" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="CJ199" s="1" t="s">
         <v>130</v>
@@ -48088,13 +48027,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -48175,7 +48114,7 @@
         <v>102</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BB200" s="1">
         <v>6</v>
@@ -48184,13 +48123,13 @@
         <v>22</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>118</v>
@@ -48199,7 +48138,7 @@
         <v>107</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>122</v>
@@ -48220,13 +48159,13 @@
         <v>1098</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="CF200" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>130</v>
@@ -48267,13 +48206,13 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -48354,7 +48293,7 @@
         <v>102</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BB201" s="1">
         <v>6</v>
@@ -48363,13 +48302,13 @@
         <v>22</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1884</v>
@@ -48387,13 +48326,13 @@
         <v>160</v>
       </c>
       <c r="BS201" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BT201" s="3">
         <v>37513</v>
       </c>
       <c r="BU201" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BV201" s="1" t="s">
         <v>122</v>
@@ -48411,16 +48350,16 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="CE201" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF201" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="CH201" s="1" t="s">
         <v>2588</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2589</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>1890</v>
@@ -48461,13 +48400,13 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2592</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
@@ -48554,16 +48493,16 @@
         <v>22</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="BN202" s="1" t="s">
         <v>118</v>
@@ -48575,13 +48514,13 @@
         <v>216</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BT202" s="3">
         <v>41024</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>122</v>
@@ -48599,19 +48538,19 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="CH202" s="1" t="s">
+      <c r="CI202" s="1" t="s">
         <v>2601</v>
-      </c>
-      <c r="CI202" s="1" t="s">
-        <v>2602</v>
       </c>
       <c r="CJ202" s="1" t="s">
         <v>130</v>
@@ -48631,7 +48570,7 @@
         <v>408</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>102</v>
@@ -48643,16 +48582,16 @@
         <v>95</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48682,7 +48621,7 @@
         <v>108</v>
       </c>
       <c r="AG203" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="AH203" s="1" t="s">
         <v>1881</v>
@@ -48727,7 +48666,7 @@
         <v>102</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -48736,7 +48675,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>118</v>
@@ -48754,7 +48693,7 @@
         <v>0</v>
       </c>
       <c r="CA203" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="CB203" s="1" t="s">
         <v>124</v>
@@ -48763,7 +48702,7 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1813</v>
@@ -48807,13 +48746,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48888,7 +48827,7 @@
         <v>102</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BB204" s="1">
         <v>6</v>
@@ -48897,13 +48836,13 @@
         <v>22</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>722</v>
@@ -48918,13 +48857,13 @@
         <v>103</v>
       </c>
       <c r="BS204" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BT204" s="3">
         <v>37336</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>122</v>
@@ -48942,16 +48881,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2620</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2621</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>728</v>
@@ -48992,13 +48931,13 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -49079,7 +49018,7 @@
         <v>102</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="BB205" s="1">
         <v>6</v>
@@ -49088,13 +49027,13 @@
         <v>22</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2211</v>
@@ -49106,7 +49045,7 @@
         <v>107</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>122</v>
@@ -49124,16 +49063,16 @@
         <v>102</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CF205" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2631</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2632</v>
       </c>
       <c r="CI205" s="1" t="s">
         <v>2216</v>
@@ -49174,13 +49113,13 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2633</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2634</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
@@ -49270,13 +49209,13 @@
         <v>22</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>118</v>
@@ -49285,7 +49224,7 @@
         <v>107</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>122</v>
@@ -49303,16 +49242,16 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="CE206" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CF206" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="CF206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2642</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -49353,13 +49292,13 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2644</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2645</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
@@ -49397,12 +49336,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2646</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>108</v>
       </c>
@@ -49452,7 +49386,7 @@
         <v>102</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="BB207" s="1">
         <v>6</v>
@@ -49461,16 +49395,16 @@
         <v>22</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>118</v>
@@ -49479,7 +49413,7 @@
         <v>107</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>122</v>
@@ -49503,16 +49437,16 @@
         <v>1146</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2653</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2654</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>130</v>
@@ -49532,7 +49466,7 @@
         <v>91</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>102</v>
@@ -49544,16 +49478,16 @@
         <v>95</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>112</v>
@@ -49577,7 +49511,7 @@
         <v>108</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>359</v>
@@ -49631,10 +49565,10 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -49651,7 +49585,7 @@
         <v>1800</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>102</v>
@@ -49663,16 +49597,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>112</v>
@@ -49699,7 +49633,7 @@
         <v>108</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>359</v>
@@ -49744,7 +49678,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>124</v>
@@ -49753,10 +49687,10 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -49773,7 +49707,7 @@
         <v>408</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>102</v>
@@ -49785,16 +49719,16 @@
         <v>95</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>112</v>
@@ -49821,7 +49755,7 @@
         <v>108</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>359</v>
@@ -49866,7 +49800,7 @@
         <v>0</v>
       </c>
       <c r="CA210" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="CB210" s="1" t="s">
         <v>124</v>
@@ -49875,10 +49809,10 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -49895,7 +49829,7 @@
         <v>91</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -49907,16 +49841,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>112</v>
@@ -49988,7 +49922,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>124</v>
@@ -49997,10 +49931,10 @@
         <v>102</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -50017,7 +49951,7 @@
         <v>91</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>93</v>
@@ -50029,16 +49963,16 @@
         <v>95</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>112</v>
@@ -50116,10 +50050,10 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -50136,7 +50070,7 @@
         <v>91</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>93</v>
@@ -50148,16 +50082,16 @@
         <v>95</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>112</v>
@@ -50229,7 +50163,7 @@
         <v>0</v>
       </c>
       <c r="CA213" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="CB213" s="1" t="s">
         <v>124</v>
@@ -50238,10 +50172,10 @@
         <v>102</v>
       </c>
       <c r="CD213" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="214" spans="1:88" x14ac:dyDescent="0.25">
@@ -50258,7 +50192,7 @@
         <v>408</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>93</v>
@@ -50270,16 +50204,16 @@
         <v>95</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>112</v>
@@ -50351,7 +50285,7 @@
         <v>0</v>
       </c>
       <c r="CA214" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="CB214" s="1" t="s">
         <v>124</v>
@@ -50360,10 +50294,10 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="215" spans="1:88" x14ac:dyDescent="0.25">
@@ -50398,13 +50332,13 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2684</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50436,12 +50370,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2646</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>108</v>
       </c>
@@ -50494,13 +50423,13 @@
         <v>22</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>1107</v>
@@ -50515,13 +50444,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="BT215" s="3">
         <v>36306</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>122</v>
@@ -50539,16 +50468,16 @@
         <v>102</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="CF215" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2691</v>
-      </c>
-      <c r="CF215" s="1" t="s">
-        <v>2692</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2693</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>1113</v>
@@ -50589,13 +50518,13 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2694</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2695</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50627,12 +50556,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2646</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>108</v>
       </c>
@@ -50688,13 +50612,13 @@
         <v>22</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>1819</v>
@@ -50706,7 +50630,7 @@
         <v>107</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>122</v>
@@ -50724,16 +50648,16 @@
         <v>102</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="CE216" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF216" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="CH216" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>1823</v>
@@ -50774,13 +50698,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -50815,12 +50739,7 @@
       <c r="AB217" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2646</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>108</v>
       </c>
@@ -50873,13 +50792,13 @@
         <v>22</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1884</v>
@@ -50894,13 +50813,13 @@
         <v>103</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="BT217" s="3">
         <v>38234</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>122</v>
@@ -50918,16 +50837,16 @@
         <v>102</v>
       </c>
       <c r="CD217" s="1" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="CE217" s="1" t="s">
         <v>990</v>
       </c>
       <c r="CF217" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="CH217" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>1890</v>
@@ -50968,13 +50887,13 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2714</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -51006,12 +50925,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2646</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>108</v>
       </c>
@@ -51067,13 +50981,13 @@
         <v>22</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>569</v>
@@ -51085,7 +50999,7 @@
         <v>107</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>122</v>
@@ -51103,16 +51017,16 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2720</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2721</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2722</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>575</v>
@@ -51153,13 +51067,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2723</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -51191,12 +51105,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2646</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>108</v>
       </c>
@@ -51249,13 +51158,13 @@
         <v>22</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>569</v>
@@ -51270,13 +51179,13 @@
         <v>216</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="BT219" s="3">
         <v>37069</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>122</v>
@@ -51297,13 +51206,13 @@
         <v>738</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="CH219" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="CF219" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>575</v>
@@ -51344,13 +51253,13 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2734</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -51382,12 +51291,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2646</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>108</v>
       </c>
@@ -51443,13 +51347,13 @@
         <v>22</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="BN220" s="1" t="s">
         <v>118</v>
@@ -51458,7 +51362,7 @@
         <v>107</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>122</v>
@@ -51476,16 +51380,16 @@
         <v>102</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="CF220" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="CF220" s="1" t="s">
-        <v>2741</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2742</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>130</v>
@@ -51526,13 +51430,13 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2744</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51564,12 +51468,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2746</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>108</v>
       </c>
@@ -51616,7 +51515,7 @@
         <v>102</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="BB221" s="1">
         <v>6</v>
@@ -51625,16 +51524,16 @@
         <v>22</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>118</v>
@@ -51646,13 +51545,13 @@
         <v>216</v>
       </c>
       <c r="BS221" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="BT221" s="3">
         <v>35125</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>122</v>
@@ -51670,19 +51569,19 @@
         <v>102</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="CE221" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="CI221" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="CJ221" s="1" t="s">
         <v>130</v>
@@ -51720,13 +51619,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51765,7 +51664,7 @@
         <v>108</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>2108</v>
@@ -51816,7 +51715,7 @@
         <v>22</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
@@ -51825,7 +51724,7 @@
         <v>118</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>122</v>
@@ -51843,13 +51742,13 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>130</v>
@@ -51893,13 +51792,13 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -51989,13 +51888,13 @@
         <v>22</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>118</v>
@@ -52004,7 +51903,7 @@
         <v>107</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>122</v>
@@ -52025,13 +51924,13 @@
         <v>320</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52072,13 +51971,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -52165,16 +52064,16 @@
         <v>22</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="BN224" s="1" t="s">
         <v>118</v>
@@ -52186,13 +52085,13 @@
         <v>216</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="BT224" s="3">
         <v>34307</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>122</v>
@@ -52210,19 +52109,19 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>404</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="CI224" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="CJ224" s="1" t="s">
         <v>130</v>
@@ -52242,7 +52141,7 @@
         <v>408</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>93</v>
@@ -52254,22 +52153,22 @@
         <v>95</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="N225" s="1" t="s">
         <v>2789</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>2790</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>2791</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="Q225" s="3">
         <v>17060</v>
@@ -52305,13 +52204,13 @@
         <v>42628</v>
       </c>
       <c r="AD225" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="AF225" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG225" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="AH225" s="1" t="s">
         <v>137</v>
@@ -52356,22 +52255,22 @@
         <v>102</v>
       </c>
       <c r="AZ225" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="BB225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD225" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="BH225" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="BI225" s="1" t="s">
         <v>2795</v>
-      </c>
-      <c r="BB225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD225" s="1" t="s">
-        <v>2796</v>
-      </c>
-      <c r="BH225" s="1" t="s">
-        <v>2797</v>
-      </c>
-      <c r="BI225" s="1" t="s">
-        <v>2798</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>118</v>
@@ -52380,7 +52279,7 @@
         <v>107</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>122</v>
@@ -52389,7 +52288,7 @@
         <v>0</v>
       </c>
       <c r="CA225" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="CB225" s="1" t="s">
         <v>124</v>
@@ -52404,13 +52303,13 @@
         <v>126</v>
       </c>
       <c r="CF225" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="CI225" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="CJ225" s="1" t="s">
         <v>130</v>
@@ -52424,13 +52323,13 @@
         <v>89</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>102</v>
@@ -52442,22 +52341,22 @@
         <v>95</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="Q226" s="3">
         <v>26864</v>
@@ -52490,7 +52389,7 @@
         <v>42735</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>108</v>
@@ -52544,10 +52443,10 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>118</v>
@@ -52559,13 +52458,13 @@
         <v>216</v>
       </c>
       <c r="BS226" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="BT226" s="3">
         <v>102</v>
       </c>
       <c r="BU226" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="BV226" s="1" t="s">
         <v>122</v>
@@ -52577,7 +52476,7 @@
         <v>112</v>
       </c>
       <c r="CA226" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="CB226" s="1" t="s">
         <v>124</v>
@@ -52586,16 +52485,16 @@
         <v>102</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="CF226" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="CH226" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>130</v>
@@ -52615,7 +52514,7 @@
         <v>243</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>92</v>
@@ -52636,16 +52535,16 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="Q227" s="3">
         <v>25379</v>
@@ -52675,7 +52574,7 @@
         <v>39800</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>229</v>
@@ -52729,10 +52628,10 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>118</v>
@@ -52744,13 +52643,13 @@
         <v>1610</v>
       </c>
       <c r="BS227" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="BT227" s="3">
         <v>35915</v>
       </c>
       <c r="BU227" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="BV227" s="1" t="s">
         <v>122</v>
@@ -52780,10 +52679,10 @@
         <v>622</v>
       </c>
       <c r="CF227" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -52806,7 +52705,7 @@
         <v>91</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>102</v>
@@ -52818,22 +52717,22 @@
         <v>95</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="Q228" s="3">
         <v>17470</v>
@@ -52863,7 +52762,7 @@
         <v>43100</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>108</v>
@@ -52920,10 +52819,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>118</v>
@@ -52932,7 +52831,7 @@
         <v>107</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>122</v>
@@ -52956,16 +52855,16 @@
         <v>102</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>130</v>
@@ -52988,7 +52887,7 @@
         <v>91</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>102</v>
@@ -53000,7 +52899,7 @@
         <v>95</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>97</v>
@@ -53009,10 +52908,10 @@
         <v>2241</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N229" s="1" t="s">
         <v>2243</v>
@@ -53045,7 +52944,7 @@
         <v>43105</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>108</v>
@@ -53099,10 +52998,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>118</v>
@@ -53114,7 +53013,7 @@
         <v>103</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="BT229" s="3">
         <v>34412</v>
@@ -53129,7 +53028,7 @@
         <v>0</v>
       </c>
       <c r="CA229" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="CB229" s="1" t="s">
         <v>124</v>
@@ -53147,7 +53046,7 @@
         <v>2251</v>
       </c>
       <c r="CH229" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53170,7 +53069,7 @@
         <v>1800</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>93</v>
@@ -53182,22 +53081,22 @@
         <v>95</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="Q230" s="3">
         <v>17726</v>
@@ -53233,7 +53132,7 @@
         <v>43312</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>229</v>
@@ -53284,7 +53183,7 @@
         <v>102</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="BB230" s="1">
         <v>0</v>
@@ -53293,10 +53192,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>118</v>
@@ -53305,7 +53204,7 @@
         <v>107</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>122</v>
@@ -53314,7 +53213,7 @@
         <v>0</v>
       </c>
       <c r="CA230" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="CB230" s="1" t="s">
         <v>124</v>
@@ -53323,16 +53222,16 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="CF230" s="1" t="s">
         <v>880</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>130</v>
@@ -53355,7 +53254,7 @@
         <v>91</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>93</v>
@@ -53367,22 +53266,22 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="Q231" s="3">
         <v>17041</v>
@@ -53409,13 +53308,13 @@
         <v>42735</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="AH231" s="1" t="s">
         <v>2108</v>
@@ -53466,7 +53365,7 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>118</v>
@@ -53475,7 +53374,7 @@
         <v>107</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>122</v>
@@ -53487,7 +53386,7 @@
         <v>112</v>
       </c>
       <c r="CA231" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="CB231" s="1" t="s">
         <v>124</v>
@@ -53496,13 +53395,13 @@
         <v>102</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="CF231" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -53528,7 +53427,7 @@
         <v>1800</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>102</v>
@@ -53540,22 +53439,22 @@
         <v>95</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="Q232" s="3">
         <v>30147</v>
@@ -53581,17 +53480,12 @@
       <c r="AA232" s="1">
         <v>0</v>
       </c>
-      <c r="AC232" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD232" s="1" t="s">
-        <v>2646</v>
-      </c>
+      <c r="AC232" s="3"/>
       <c r="AF232" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>359</v>
@@ -53639,10 +53533,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>118</v>
@@ -53654,13 +53548,13 @@
         <v>103</v>
       </c>
       <c r="BS232" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="BT232" s="3">
         <v>37124</v>
       </c>
       <c r="BU232" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="BV232" s="1" t="s">
         <v>122</v>
@@ -53669,7 +53563,7 @@
         <v>0</v>
       </c>
       <c r="CA232" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="CB232" s="1" t="s">
         <v>124</v>
@@ -53678,16 +53572,16 @@
         <v>102</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="CF232" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="CH232" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>130</v>
@@ -53710,7 +53604,7 @@
         <v>91</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>102</v>
@@ -53722,22 +53616,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="Q233" s="3">
         <v>17821</v>
@@ -53776,7 +53670,7 @@
         <v>43388</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>108</v>
@@ -53827,25 +53721,25 @@
         <v>102</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="BE233" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="BF233" s="1" t="s">
         <v>2883</v>
       </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
+      <c r="BH233" s="1" t="s">
         <v>2884</v>
-      </c>
-      <c r="BE233" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="BF233" s="1" t="s">
-        <v>2886</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>2887</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>118</v>
@@ -53854,7 +53748,7 @@
         <v>107</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>122</v>
@@ -53863,7 +53757,7 @@
         <v>0</v>
       </c>
       <c r="CA233" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="CB233" s="1" t="s">
         <v>124</v>
@@ -53872,16 +53766,16 @@
         <v>102</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="CF233" s="1" t="s">
         <v>481</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>130</v>
@@ -53901,7 +53795,7 @@
         <v>243</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>92</v>
@@ -53922,16 +53816,16 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>101</v>
@@ -53964,7 +53858,7 @@
         <v>43980</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>108</v>
@@ -54018,10 +53912,10 @@
         <v>20</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>118</v>
@@ -54033,13 +53927,13 @@
         <v>1610</v>
       </c>
       <c r="BS234" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="BT234" s="3">
         <v>35915</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>122</v>
@@ -54063,7 +53957,7 @@
         <v>622</v>
       </c>
       <c r="CF234" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>1813</v>
@@ -54101,22 +53995,22 @@
         <v>95</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>101</v>
@@ -54152,7 +54046,7 @@
         <v>44135</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>108</v>
@@ -54209,10 +54103,10 @@
         <v>20</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>118</v>
@@ -54221,7 +54115,7 @@
         <v>107</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>122</v>
@@ -54230,7 +54124,7 @@
         <v>0</v>
       </c>
       <c r="CA235" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="CB235" s="1" t="s">
         <v>124</v>
@@ -54242,10 +54136,10 @@
         <v>1237</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>1813</v>
@@ -54262,10 +54156,10 @@
         <v>88</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1212</v>
@@ -54280,7 +54174,7 @@
         <v>94</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>1212</v>
@@ -54289,13 +54183,13 @@
         <v>92</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>101</v>
@@ -54349,7 +54243,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -54382,19 +54276,19 @@
         <v>22</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="BG236" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>122</v>
@@ -54412,16 +54306,16 @@
         <v>102</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="CE236" s="1" t="s">
         <v>298</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>130</v>
@@ -54435,10 +54329,10 @@
         <v>88</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1212</v>
@@ -54453,7 +54347,7 @@
         <v>94</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1212</v>
@@ -54462,13 +54356,13 @@
         <v>92</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>101</v>
@@ -54519,7 +54413,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -54555,19 +54449,19 @@
         <v>22</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>122</v>
@@ -54594,10 +54488,10 @@
         <v>1049</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="CH237" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>130</v>
@@ -54611,10 +54505,10 @@
         <v>88</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1212</v>
@@ -54629,7 +54523,7 @@
         <v>94</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1212</v>
@@ -54638,13 +54532,13 @@
         <v>92</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>101</v>
@@ -54695,7 +54589,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54731,19 +54625,19 @@
         <v>22</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>122</v>
@@ -54764,16 +54658,16 @@
         <v>102</v>
       </c>
       <c r="CD238" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="CE238" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="CF238" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="CH238" s="1" t="s">
         <v>2933</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="CF238" s="1" t="s">
-        <v>2935</v>
-      </c>
-      <c r="CH238" s="1" t="s">
-        <v>2936</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>130</v>
@@ -54787,10 +54681,10 @@
         <v>88</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1212</v>
@@ -54805,7 +54699,7 @@
         <v>94</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1212</v>
@@ -54814,13 +54708,13 @@
         <v>92</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>101</v>
@@ -54907,19 +54801,19 @@
         <v>22</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>122</v>
@@ -54940,7 +54834,7 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="CE239" s="1" t="s">
         <v>572</v>
@@ -54949,7 +54843,7 @@
         <v>481</v>
       </c>
       <c r="CH239" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="CI239" s="1" t="s">
         <v>130</v>
@@ -54963,10 +54857,10 @@
         <v>88</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1212</v>
@@ -54981,7 +54875,7 @@
         <v>94</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1212</v>
@@ -54990,13 +54884,13 @@
         <v>92</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>101</v>
@@ -55050,7 +54944,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55086,19 +54980,19 @@
         <v>22</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>122</v>
@@ -55122,13 +55016,13 @@
         <v>465</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>130</v>
@@ -55142,10 +55036,10 @@
         <v>88</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1212</v>
@@ -55160,7 +55054,7 @@
         <v>94</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1212</v>
@@ -55169,13 +55063,13 @@
         <v>92</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>101</v>
@@ -55262,19 +55156,19 @@
         <v>22</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>122</v>
@@ -55295,16 +55189,16 @@
         <v>102</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="CE241" s="1" t="s">
         <v>583</v>
       </c>
       <c r="CF241" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>130</v>
@@ -55318,10 +55212,10 @@
         <v>88</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1212</v>
@@ -55336,7 +55230,7 @@
         <v>94</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1212</v>
@@ -55345,13 +55239,13 @@
         <v>92</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
@@ -55405,7 +55299,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -55441,19 +55335,19 @@
         <v>22</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>122</v>
@@ -55474,16 +55368,16 @@
         <v>102</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CE242" s="1" t="s">
         <v>978</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="CH242" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>130</v>
@@ -55497,10 +55391,10 @@
         <v>88</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1212</v>
@@ -55515,7 +55409,7 @@
         <v>94</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1212</v>
@@ -55524,13 +55418,13 @@
         <v>92</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
@@ -55584,7 +55478,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -55620,19 +55514,19 @@
         <v>22</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>122</v>
@@ -55656,13 +55550,13 @@
         <v>964</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>130</v>
@@ -55676,10 +55570,10 @@
         <v>88</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1212</v>
@@ -55694,7 +55588,7 @@
         <v>94</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1212</v>
@@ -55703,10 +55597,10 @@
         <v>92</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -55748,7 +55642,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -55784,7 +55678,7 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>118</v>
@@ -55808,7 +55702,7 @@
         <v>102</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -55825,10 +55719,10 @@
         <v>88</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1212</v>
@@ -55843,7 +55737,7 @@
         <v>94</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1212</v>
@@ -55852,13 +55746,13 @@
         <v>92</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>2188</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -55909,7 +55803,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55942,19 +55836,19 @@
         <v>22</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>122</v>
@@ -55972,16 +55866,16 @@
         <v>102</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="CE245" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="CF245" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="CH245" s="1" t="s">
         <v>2992</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="CF245" s="1" t="s">
-        <v>2994</v>
-      </c>
-      <c r="CH245" s="1" t="s">
-        <v>2995</v>
       </c>
       <c r="CI245" s="1" t="s">
         <v>130</v>
@@ -55995,10 +55889,10 @@
         <v>88</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1212</v>
@@ -56013,7 +55907,7 @@
         <v>94</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1212</v>
@@ -56022,13 +55916,13 @@
         <v>92</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -56112,19 +56006,19 @@
         <v>22</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>122</v>
@@ -56145,16 +56039,16 @@
         <v>2129</v>
       </c>
       <c r="CD246" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="CF246" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="CH246" s="1" t="s">
         <v>3002</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3003</v>
-      </c>
-      <c r="CF246" s="1" t="s">
-        <v>3004</v>
-      </c>
-      <c r="CH246" s="1" t="s">
-        <v>3005</v>
       </c>
       <c r="CI246" s="1" t="s">
         <v>130</v>
@@ -56168,10 +56062,10 @@
         <v>88</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1212</v>
@@ -56186,7 +56080,7 @@
         <v>94</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1212</v>
@@ -56195,13 +56089,13 @@
         <v>92</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -56252,7 +56146,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56288,19 +56182,19 @@
         <v>22</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>122</v>
@@ -56321,16 +56215,16 @@
         <v>102</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CH247" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CI247" s="1" t="s">
         <v>130</v>
@@ -56344,10 +56238,10 @@
         <v>88</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1212</v>
@@ -56362,7 +56256,7 @@
         <v>94</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1212</v>
@@ -56371,10 +56265,10 @@
         <v>92</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56416,7 +56310,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -56452,7 +56346,7 @@
         <v>22</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>118</v>
@@ -56476,7 +56370,7 @@
         <v>102</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -56493,10 +56387,10 @@
         <v>88</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1212</v>
@@ -56511,7 +56405,7 @@
         <v>94</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1212</v>
@@ -56520,10 +56414,10 @@
         <v>92</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56565,7 +56459,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -56601,7 +56495,7 @@
         <v>22</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>118</v>
@@ -56625,7 +56519,7 @@
         <v>102</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -56642,10 +56536,10 @@
         <v>88</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1212</v>
@@ -56660,7 +56554,7 @@
         <v>94</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1212</v>
@@ -56669,13 +56563,13 @@
         <v>92</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -56768,7 +56662,7 @@
         <v>22</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>115</v>
@@ -56795,10 +56689,10 @@
         <v>102</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="CF250" s="1" t="s">
         <v>205</v>
@@ -56818,10 +56712,10 @@
         <v>88</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1212</v>
@@ -56836,7 +56730,7 @@
         <v>94</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1212</v>
@@ -56845,10 +56739,10 @@
         <v>92</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -56890,7 +56784,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -56926,7 +56820,7 @@
         <v>22</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>118</v>
@@ -56935,7 +56829,7 @@
         <v>122</v>
       </c>
       <c r="BX251" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BY251" s="1">
         <v>0</v>
@@ -56953,7 +56847,7 @@
         <v>102</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -56970,10 +56864,10 @@
         <v>88</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1212</v>
@@ -56988,7 +56882,7 @@
         <v>94</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1212</v>
@@ -56997,13 +56891,13 @@
         <v>92</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -57054,7 +56948,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57090,19 +56984,19 @@
         <v>22</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>122</v>
@@ -57123,16 +57017,16 @@
         <v>102</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>130</v>
@@ -57146,10 +57040,10 @@
         <v>88</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1212</v>
@@ -57164,7 +57058,7 @@
         <v>94</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1212</v>
@@ -57173,13 +57067,13 @@
         <v>92</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57209,7 +57103,7 @@
         <v>108</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="AH253" s="1" t="s">
         <v>359</v>
@@ -57224,7 +57118,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -57254,19 +57148,19 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>122</v>
@@ -57284,16 +57178,16 @@
         <v>102</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>298</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>130</v>
@@ -57307,10 +57201,10 @@
         <v>88</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1212</v>
@@ -57325,7 +57219,7 @@
         <v>94</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1212</v>
@@ -57334,13 +57228,13 @@
         <v>92</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57424,19 +57318,19 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>122</v>
@@ -57454,16 +57348,16 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="CF254" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="CH254" s="1" t="s">
         <v>3058</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>3059</v>
-      </c>
-      <c r="CF254" s="1" t="s">
-        <v>3060</v>
-      </c>
-      <c r="CH254" s="1" t="s">
-        <v>3061</v>
       </c>
       <c r="CI254" s="1" t="s">
         <v>130</v>
@@ -57477,10 +57371,10 @@
         <v>88</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1212</v>
@@ -57495,7 +57389,7 @@
         <v>94</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1212</v>
@@ -57504,13 +57398,13 @@
         <v>92</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -57597,19 +57491,19 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>122</v>
@@ -57627,16 +57521,16 @@
         <v>102</v>
       </c>
       <c r="CD255" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="CE255" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="CF255" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="CH255" s="1" t="s">
         <v>3068</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>3069</v>
-      </c>
-      <c r="CF255" s="1" t="s">
-        <v>3070</v>
-      </c>
-      <c r="CH255" s="1" t="s">
-        <v>3071</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>130</v>
@@ -57650,10 +57544,10 @@
         <v>88</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1212</v>
@@ -57668,7 +57562,7 @@
         <v>94</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1212</v>
@@ -57677,13 +57571,13 @@
         <v>92</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -57692,7 +57586,7 @@
         <v>102</v>
       </c>
       <c r="Q256" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>135</v>
@@ -57734,7 +57628,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -57767,19 +57661,19 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>122</v>
@@ -57797,16 +57691,16 @@
         <v>102</v>
       </c>
       <c r="CD256" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="CF256" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="CH256" s="1" t="s">
         <v>3079</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3080</v>
-      </c>
-      <c r="CF256" s="1" t="s">
-        <v>3081</v>
-      </c>
-      <c r="CH256" s="1" t="s">
-        <v>3082</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>130</v>
@@ -57847,13 +57741,13 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -57946,13 +57840,13 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>118</v>
@@ -57961,7 +57855,7 @@
         <v>107</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>122</v>
@@ -57991,10 +57885,10 @@
         <v>1205</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="CH257" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>130</v>
@@ -58035,13 +57929,13 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58131,16 +58025,16 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BI258" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>118</v>
@@ -58155,13 +58049,13 @@
         <v>160</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BT258" s="3">
         <v>5347</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>122</v>
@@ -58185,19 +58079,19 @@
         <v>102</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="CE258" s="1" t="s">
         <v>439</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="CH258" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CI258" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="CJ258" s="1" t="s">
         <v>130</v>
@@ -58235,13 +58129,13 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58331,7 +58225,7 @@
         <v>22</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>115</v>
@@ -58343,13 +58237,13 @@
         <v>216</v>
       </c>
       <c r="BS259" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BT259" s="3">
         <v>5480</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>122</v>
@@ -58376,10 +58270,10 @@
         <v>452</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -58423,10 +58317,10 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58456,10 +58350,10 @@
         <v>108</v>
       </c>
       <c r="AG260" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="AH260" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="AJ260" s="1" t="s">
         <v>111</v>
@@ -58507,7 +58401,7 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>118</v>
@@ -58537,7 +58431,7 @@
         <v>93</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -58581,10 +58475,10 @@
         <v>97</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -58614,10 +58508,10 @@
         <v>108</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="AH261" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="AJ261" s="1" t="s">
         <v>111</v>
@@ -58665,7 +58559,7 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>118</v>
@@ -58683,7 +58577,7 @@
         <v>112</v>
       </c>
       <c r="CA261" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CB261" s="1" t="s">
         <v>124</v>
@@ -58692,7 +58586,7 @@
         <v>93</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -58718,7 +58612,7 @@
         <v>408</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>102</v>
@@ -58730,22 +58624,22 @@
         <v>95</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -58781,13 +58675,13 @@
         <v>43847</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>1881</v>
@@ -58832,7 +58726,7 @@
         <v>102</v>
       </c>
       <c r="AZ262" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BB262" s="1">
         <v>2</v>
@@ -58841,10 +58735,10 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>118</v>
@@ -58856,13 +58750,13 @@
         <v>119</v>
       </c>
       <c r="BS262" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BT262" s="3">
         <v>34808</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>122</v>
@@ -58871,7 +58765,7 @@
         <v>0</v>
       </c>
       <c r="CA262" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="CB262" s="1" t="s">
         <v>124</v>
@@ -58880,13 +58774,13 @@
         <v>102</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>1813</v>
@@ -58903,10 +58797,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1212</v>
@@ -58930,16 +58824,16 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -58993,7 +58887,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59023,7 +58917,7 @@
         <v>102</v>
       </c>
       <c r="AZ263" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BB263" s="1">
         <v>2</v>
@@ -59032,13 +58926,13 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>122</v>
@@ -59056,13 +58950,13 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CF263" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59106,16 +59000,16 @@
         <v>97</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59154,7 +59048,7 @@
         <v>44246</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>108</v>
@@ -59211,10 +59105,10 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>118</v>
@@ -59223,7 +59117,7 @@
         <v>107</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>122</v>
@@ -59247,13 +59141,13 @@
         <v>102</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>144</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -59297,16 +59191,16 @@
         <v>97</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59345,7 +59239,7 @@
         <v>44267</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>108</v>
@@ -59402,10 +59296,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>118</v>
@@ -59417,13 +59311,13 @@
         <v>119</v>
       </c>
       <c r="BS265" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BT265" s="3">
         <v>35711</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>122</v>
@@ -59447,7 +59341,7 @@
         <v>366</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -59491,16 +59385,16 @@
         <v>97</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59536,16 +59430,16 @@
         <v>44255</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG266" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="AH266" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="AJ266" s="1" t="s">
         <v>111</v>
@@ -59593,10 +59487,10 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>118</v>
@@ -59605,13 +59499,13 @@
         <v>216</v>
       </c>
       <c r="BS266" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BT266" s="3">
         <v>2302</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>122</v>
@@ -59635,13 +59529,13 @@
         <v>93</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -59685,16 +59579,16 @@
         <v>97</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -59730,7 +59624,7 @@
         <v>44316</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>108</v>
@@ -59787,10 +59681,10 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>118</v>
@@ -59802,13 +59696,13 @@
         <v>216</v>
       </c>
       <c r="BS267" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BT267" s="3">
         <v>35108</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>122</v>
@@ -59826,16 +59720,16 @@
         <v>102</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>1899</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>130</v>
@@ -59876,13 +59770,13 @@
         <v>97</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -59972,7 +59866,7 @@
         <v>22</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>115</v>
@@ -59981,7 +59875,7 @@
         <v>118</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>122</v>
@@ -60002,13 +59896,13 @@
         <v>102</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -60052,16 +59946,16 @@
         <v>97</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60097,16 +59991,16 @@
         <v>44507</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG269" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="AH269" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="AI269" s="1" t="s">
         <v>102</v>
@@ -60157,16 +60051,16 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>122</v>
@@ -60181,7 +60075,7 @@
         <v>112</v>
       </c>
       <c r="CA269" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CB269" s="1" t="s">
         <v>124</v>
@@ -60190,13 +60084,13 @@
         <v>93</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="CF269" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60240,13 +60134,13 @@
         <v>97</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
@@ -60333,13 +60227,13 @@
         <v>22</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="BI270" s="1" t="s">
         <v>1819</v>
@@ -60354,13 +60248,13 @@
         <v>119</v>
       </c>
       <c r="BS270" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BT270" s="3">
         <v>35278</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>122</v>
@@ -60381,16 +60275,16 @@
         <v>102</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3198</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3199</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3200</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3201</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>1823</v>
@@ -60404,10 +60298,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1212</v>
@@ -60422,7 +60316,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1212</v>
@@ -60431,13 +60325,13 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60491,7 +60385,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60527,19 +60421,19 @@
         <v>22</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>122</v>
@@ -60566,10 +60460,10 @@
         <v>1454</v>
       </c>
       <c r="CF271" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="CH271" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>130</v>
@@ -60610,13 +60504,13 @@
         <v>97</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -60652,10 +60546,10 @@
         <v>108</v>
       </c>
       <c r="AG272" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="AH272" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="AI272" s="1" t="s">
         <v>102</v>
@@ -60706,19 +60600,19 @@
         <v>22</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU272" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BV272" s="1" t="s">
         <v>122</v>
@@ -60739,16 +60633,16 @@
         <v>93</v>
       </c>
       <c r="CD272" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="CE272" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="CF272" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="CH272" s="1" t="s">
         <v>3217</v>
-      </c>
-      <c r="CE272" s="1" t="s">
-        <v>3218</v>
-      </c>
-      <c r="CF272" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="CH272" s="1" t="s">
-        <v>3220</v>
       </c>
       <c r="CI272" s="1" t="s">
         <v>130</v>
@@ -60789,13 +60683,13 @@
         <v>97</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -60885,19 +60779,19 @@
         <v>22</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BG273" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU273" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BV273" s="1" t="s">
         <v>122</v>
@@ -60918,16 +60812,16 @@
         <v>102</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="CE273" s="1" t="s">
         <v>440</v>
       </c>
       <c r="CF273" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CH273" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CI273" s="1" t="s">
         <v>130</v>
@@ -60968,16 +60862,16 @@
         <v>97</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -61013,7 +60907,7 @@
         <v>44701</v>
       </c>
       <c r="AD274" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="AF274" s="1" t="s">
         <v>108</v>
@@ -61061,7 +60955,7 @@
         <v>102</v>
       </c>
       <c r="AZ274" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BB274" s="1">
         <v>5</v>
@@ -61070,10 +60964,10 @@
         <v>22</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>118</v>
@@ -61088,13 +60982,13 @@
         <v>160</v>
       </c>
       <c r="BS274" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BT274" s="3">
         <v>36825</v>
       </c>
       <c r="BU274" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="BV274" s="1" t="s">
         <v>122</v>
@@ -61118,16 +61012,16 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CF274" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="CH274" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="CI274" s="1" t="s">
         <v>130</v>
@@ -61137,6 +61031,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ274" xr:uid="{90E51B6F-0F0B-40D0-B7B7-048DBFDAD164}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>